--- a/data/trans_orig/P05A07-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>580418</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>546443</v>
+        <v>545145</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>612979</v>
+        <v>613196</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.557443156349305</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5248132291753578</v>
+        <v>0.5235664830386043</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5887146689354371</v>
+        <v>0.5889232012732938</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>546</v>
@@ -764,19 +764,19 @@
         <v>595178</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>558587</v>
+        <v>558458</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>629732</v>
+        <v>629757</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5329479554994677</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5001831827368504</v>
+        <v>0.5000677137103063</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5638896330428695</v>
+        <v>0.563911402109461</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1093</v>
@@ -785,19 +785,19 @@
         <v>1175595</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1125710</v>
+        <v>1129251</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1224327</v>
+        <v>1221776</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.544766773796641</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5216502281572422</v>
+        <v>0.523290972312869</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5673486720798815</v>
+        <v>0.5661667864956164</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>321747</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>292628</v>
+        <v>291930</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>352820</v>
+        <v>352271</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3090115415587303</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2810445958740062</v>
+        <v>0.2803747416807114</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.338853683428051</v>
+        <v>0.3383271014477935</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>336</v>
@@ -835,19 +835,19 @@
         <v>362248</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>333724</v>
+        <v>330361</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>399960</v>
+        <v>394552</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3243729946336231</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2988310229558673</v>
+        <v>0.2958197603272713</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.358141787123014</v>
+        <v>0.3532991147979561</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>635</v>
@@ -856,19 +856,19 @@
         <v>683996</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>641082</v>
+        <v>642134</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>726625</v>
+        <v>730208</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3169611663418001</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2970751164501169</v>
+        <v>0.2975625176880737</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3367153940705649</v>
+        <v>0.3383758285688056</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>139049</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>115368</v>
+        <v>117892</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>161880</v>
+        <v>164443</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1335453020919647</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.110801717077717</v>
+        <v>0.1132255042655189</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1554718683582128</v>
+        <v>0.1579334684772969</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>146</v>
@@ -906,19 +906,19 @@
         <v>159339</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>135289</v>
+        <v>134563</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>184528</v>
+        <v>184320</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1426790498669091</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1211437304602695</v>
+        <v>0.1204934104275051</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1652347473445354</v>
+        <v>0.1650480767483316</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>275</v>
@@ -927,19 +927,19 @@
         <v>298388</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>266613</v>
+        <v>263337</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>331533</v>
+        <v>330080</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1382720598615589</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1235475352825677</v>
+        <v>0.1220292809563445</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1536311202562069</v>
+        <v>0.1529580886835662</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>468046</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>437145</v>
+        <v>435587</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>502819</v>
+        <v>498311</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4800164532031888</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4483247473240868</v>
+        <v>0.4467265469604061</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5156784485696702</v>
+        <v>0.5110551695180503</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>501</v>
@@ -1052,19 +1052,19 @@
         <v>538472</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>503016</v>
+        <v>504766</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>570791</v>
+        <v>572066</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4943603639329773</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4618085857448251</v>
+        <v>0.4634151789673447</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5240312246830797</v>
+        <v>0.525201841880466</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>940</v>
@@ -1073,19 +1073,19 @@
         <v>1006518</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>962241</v>
+        <v>956625</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1050388</v>
+        <v>1058515</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4875850588541814</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4661360804872263</v>
+        <v>0.4634155380728399</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.508836789679447</v>
+        <v>0.5127738100934297</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>371620</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>339458</v>
+        <v>339947</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>402262</v>
+        <v>403711</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3811239160828075</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3481393082624834</v>
+        <v>0.3486408693713139</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4125494281448732</v>
+        <v>0.4140356540000376</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>384</v>
@@ -1123,19 +1123,19 @@
         <v>414271</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>382748</v>
+        <v>381008</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>444472</v>
+        <v>447640</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3803334538427722</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3513935361582884</v>
+        <v>0.3497960402501973</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4080603814279947</v>
+        <v>0.4109690471325387</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>738</v>
@@ -1144,19 +1144,19 @@
         <v>785890</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>743110</v>
+        <v>734844</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>828081</v>
+        <v>828904</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3807068264139208</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.359982890259171</v>
+        <v>0.355978300932142</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4011452062268741</v>
+        <v>0.4015437401597044</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>135397</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>113457</v>
+        <v>116553</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>158671</v>
+        <v>160316</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1388596307140037</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.116358703011823</v>
+        <v>0.1195343198603379</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.16272897853745</v>
+        <v>0.1644160707572974</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>131</v>
@@ -1194,19 +1194,19 @@
         <v>136487</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>117046</v>
+        <v>115751</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>159926</v>
+        <v>160320</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1253061822242505</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1074571784481312</v>
+        <v>0.1062685027593626</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1468252726308458</v>
+        <v>0.1471868288556438</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>260</v>
@@ -1215,19 +1215,19 @@
         <v>271884</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>241070</v>
+        <v>242662</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>304527</v>
+        <v>303504</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1317081147318979</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1167810103317823</v>
+        <v>0.1175520388686964</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1475210643200559</v>
+        <v>0.147025544193284</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>442430</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>411603</v>
+        <v>413555</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>469311</v>
+        <v>473350</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5010559282400742</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4661443152007194</v>
+        <v>0.468354622176767</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5314993188423405</v>
+        <v>0.5360728166980249</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>407</v>
@@ -1340,19 +1340,19 @@
         <v>434385</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>403273</v>
+        <v>405053</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>465723</v>
+        <v>465047</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4972028368867831</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.461591934506254</v>
+        <v>0.4636298263712683</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5330729861609732</v>
+        <v>0.5322991345550304</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>814</v>
@@ -1361,19 +1361,19 @@
         <v>876815</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>833513</v>
+        <v>835178</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>919178</v>
+        <v>918312</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4991396237974477</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4744897619359089</v>
+        <v>0.475437241920279</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5232557953805314</v>
+        <v>0.522762574443549</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>344243</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>317672</v>
+        <v>315163</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>375525</v>
+        <v>374610</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3898589106937986</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3597660139306308</v>
+        <v>0.3569255083161905</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4252854719620369</v>
+        <v>0.4242496984861093</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>298</v>
@@ -1411,19 +1411,19 @@
         <v>316867</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>288256</v>
+        <v>289595</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>348580</v>
+        <v>347801</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3626901082406073</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3299421478475092</v>
+        <v>0.3314740880726229</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3989890330733376</v>
+        <v>0.3980973514470569</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>624</v>
@@ -1432,19 +1432,19 @@
         <v>661110</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>623848</v>
+        <v>617761</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>705336</v>
+        <v>700542</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.376346722150067</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3551345106514488</v>
+        <v>0.3516695000475455</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4015230993210869</v>
+        <v>0.3987937783628474</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>96322</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>78136</v>
+        <v>79247</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117327</v>
+        <v>115933</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1090851610661273</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08848955612755541</v>
+        <v>0.08974800196677561</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1328738888623993</v>
+        <v>0.1312951981522065</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>114</v>
@@ -1482,19 +1482,19 @@
         <v>122406</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>102737</v>
+        <v>102251</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>144730</v>
+        <v>142175</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1401070548726096</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1175942188172971</v>
+        <v>0.1170381422957107</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1656599183900032</v>
+        <v>0.162735809010721</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>209</v>
@@ -1503,19 +1503,19 @@
         <v>218727</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>192332</v>
+        <v>190907</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>248123</v>
+        <v>248335</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1245136540524853</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1094880879097856</v>
+        <v>0.1086767513068677</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.141247771623645</v>
+        <v>0.1413682008046362</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>298705</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>275339</v>
+        <v>274223</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>320922</v>
+        <v>320973</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5956471064199401</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5490537208933846</v>
+        <v>0.5468293393194299</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6399516475475527</v>
+        <v>0.6400525287125797</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>241</v>
@@ -1628,19 +1628,19 @@
         <v>263933</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>243018</v>
+        <v>242558</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>286434</v>
+        <v>285317</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5878710768529277</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5412857435356264</v>
+        <v>0.5402611075700717</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6379892181900845</v>
+        <v>0.6354998175389475</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>514</v>
@@ -1649,19 +1649,19 @@
         <v>562637</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>530483</v>
+        <v>531300</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>598624</v>
+        <v>596135</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5919739198195327</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.558143037537819</v>
+        <v>0.5590029097557634</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6298372734668617</v>
+        <v>0.6272180708430014</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>143943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>125678</v>
+        <v>125904</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>168726</v>
+        <v>166953</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2870365451791724</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.250615090449014</v>
+        <v>0.2510659219708223</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3364562787344598</v>
+        <v>0.3329213084935254</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>112</v>
@@ -1699,19 +1699,19 @@
         <v>124548</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>104107</v>
+        <v>105232</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>143554</v>
+        <v>145699</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2774111770144357</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2318829739222436</v>
+        <v>0.2343884332726087</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3197442104229205</v>
+        <v>0.3245222862836414</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>243</v>
@@ -1720,19 +1720,19 @@
         <v>268490</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>240211</v>
+        <v>239546</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>299747</v>
+        <v>296277</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2824897809131663</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2527355992610289</v>
+        <v>0.2520363992369922</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3153764800694228</v>
+        <v>0.311725460004935</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>58832</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45285</v>
+        <v>44378</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>74400</v>
+        <v>73756</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1173163484008875</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09030289918143257</v>
+        <v>0.08849384685878528</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1483619648491248</v>
+        <v>0.1470761339034526</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>56</v>
@@ -1770,19 +1770,19 @@
         <v>60483</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>47715</v>
+        <v>46443</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>76723</v>
+        <v>76112</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1347177461326366</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1062780979311427</v>
+        <v>0.1034442690986081</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1708882218406493</v>
+        <v>0.1695283722445413</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>112</v>
@@ -1791,19 +1791,19 @@
         <v>119315</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>98396</v>
+        <v>99298</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>142010</v>
+        <v>142055</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1255362992673009</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1035263407784901</v>
+        <v>0.1044756530143083</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1494149987546669</v>
+        <v>0.1494615216802431</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>1789599</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1728540</v>
+        <v>1729283</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1849266</v>
+        <v>1852339</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5262362247987776</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5082818201463158</v>
+        <v>0.5085001766760543</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5437814727164685</v>
+        <v>0.5446850122092142</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1695</v>
@@ -1916,19 +1916,19 @@
         <v>1831967</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1768671</v>
+        <v>1769550</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1890878</v>
+        <v>1890417</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5191744953118873</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5012365071146184</v>
+        <v>0.5014856661328181</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5358698781186736</v>
+        <v>0.5357390283000906</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3361</v>
@@ -1937,19 +1937,19 @@
         <v>3621566</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3529654</v>
+        <v>3536652</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3705263</v>
+        <v>3708326</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5226402072977688</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5093760546423421</v>
+        <v>0.5103860237183744</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5347188345014577</v>
+        <v>0.5351608458256484</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>1181554</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1126202</v>
+        <v>1118422</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1238329</v>
+        <v>1236704</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3474388954264289</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3311625570487036</v>
+        <v>0.3288748903306777</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3641339407496074</v>
+        <v>0.3636559391467183</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1130</v>
@@ -1987,19 +1987,19 @@
         <v>1217933</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1161073</v>
+        <v>1156646</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1278965</v>
+        <v>1276449</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3451589582350195</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3290449475767641</v>
+        <v>0.3277902437439121</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3624551754699682</v>
+        <v>0.3617422946533649</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2240</v>
@@ -2008,19 +2008,19 @@
         <v>2399487</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2320628</v>
+        <v>2321458</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2486485</v>
+        <v>2485569</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3462778917294266</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3348975779822733</v>
+        <v>0.3350173738393513</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3588328817846854</v>
+        <v>0.3587007947112633</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>429600</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>392595</v>
+        <v>390030</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>474723</v>
+        <v>471613</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1263248797747935</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1154436469121135</v>
+        <v>0.1146893358992532</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1395935531181837</v>
+        <v>0.1386788918210939</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>447</v>
@@ -2058,19 +2058,19 @@
         <v>478715</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>437247</v>
+        <v>436704</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>522196</v>
+        <v>524031</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1356665464530931</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1239145702536942</v>
+        <v>0.1237606480545517</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1479889379813147</v>
+        <v>0.1485088540374709</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>856</v>
@@ -2079,19 +2079,19 @@
         <v>908315</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>853707</v>
+        <v>848376</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>968692</v>
+        <v>965461</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1310819009728046</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1232013452758046</v>
+        <v>0.1224319229543536</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1397951994731466</v>
+        <v>0.1393288895438008</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>672243</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>639782</v>
+        <v>642034</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>708322</v>
+        <v>709420</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5986917597022162</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5697823749280689</v>
+        <v>0.5717877726246484</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6308231383031384</v>
+        <v>0.6318017293610191</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>766</v>
@@ -2444,19 +2444,19 @@
         <v>810097</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>774045</v>
+        <v>776468</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>844925</v>
+        <v>843404</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6461133632313674</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6173590979290948</v>
+        <v>0.6192913747654184</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6738910608858369</v>
+        <v>0.6726781001780108</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1405</v>
@@ -2465,19 +2465,19 @@
         <v>1482340</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1431885</v>
+        <v>1433911</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1527667</v>
+        <v>1531764</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6237089653075939</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6024794533213905</v>
+        <v>0.6033319352478612</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6427809565875896</v>
+        <v>0.644504543158787</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>325178</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>294555</v>
+        <v>293085</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>355878</v>
+        <v>354200</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2895998723829928</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2623270582395729</v>
+        <v>0.2610183076747964</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3169404982508731</v>
+        <v>0.3154467962928164</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>280</v>
@@ -2515,19 +2515,19 @@
         <v>295285</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>266290</v>
+        <v>266398</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>328633</v>
+        <v>327181</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2355117533547746</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2123863670277152</v>
+        <v>0.2124722118696498</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2621091919679875</v>
+        <v>0.2609517874557696</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>582</v>
@@ -2536,19 +2536,19 @@
         <v>620463</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>578591</v>
+        <v>577703</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>664111</v>
+        <v>666398</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2610657551487396</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2434477990361874</v>
+        <v>0.243074199771719</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2794311662982001</v>
+        <v>0.2803933056113733</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>125432</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>105295</v>
+        <v>106481</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>149602</v>
+        <v>149600</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1117083679147909</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09377469562515772</v>
+        <v>0.09483061966908868</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1332338068265108</v>
+        <v>0.1332316534910019</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>137</v>
@@ -2586,19 +2586,19 @@
         <v>148418</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>127888</v>
+        <v>126716</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>175271</v>
+        <v>173138</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1183748834138581</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1020001608914549</v>
+        <v>0.1010657447094087</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1397919409012946</v>
+        <v>0.1380906165476419</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>257</v>
@@ -2607,19 +2607,19 @@
         <v>273851</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>242081</v>
+        <v>244669</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>305894</v>
+        <v>308184</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1152252795436665</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1018580953413678</v>
+        <v>0.1029466810984313</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1287078350913493</v>
+        <v>0.1296714537107153</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>555917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>526130</v>
+        <v>524909</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>584082</v>
+        <v>583297</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6137620629135091</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5808758336765065</v>
+        <v>0.5795279716589226</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6448575197796976</v>
+        <v>0.6439916106457994</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>561</v>
@@ -2732,19 +2732,19 @@
         <v>594434</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>563879</v>
+        <v>565246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>625315</v>
+        <v>626608</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5925859811795309</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.562125686469049</v>
+        <v>0.5634887620977347</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6233707221421938</v>
+        <v>0.6246593079081836</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1102</v>
@@ -2753,19 +2753,19 @@
         <v>1150351</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1101976</v>
+        <v>1106843</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1189490</v>
+        <v>1191470</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6026339580215923</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5772917415750461</v>
+        <v>0.5798412110537196</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6231377628923676</v>
+        <v>0.6241748614308319</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>260821</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>234176</v>
+        <v>236037</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>286710</v>
+        <v>293272</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2879599037558946</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2585427203451979</v>
+        <v>0.260597073248838</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3165434473397281</v>
+        <v>0.323787827300299</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>263</v>
@@ -2803,19 +2803,19 @@
         <v>274339</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>245941</v>
+        <v>249539</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>302263</v>
+        <v>303244</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2734859885073606</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2451766130095805</v>
+        <v>0.2487630091387161</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3013234592000589</v>
+        <v>0.3023008746757451</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>514</v>
@@ -2824,19 +2824,19 @@
         <v>535160</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>498829</v>
+        <v>495443</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>572505</v>
+        <v>573681</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2803538107540924</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2613215381740064</v>
+        <v>0.2595473746965704</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2999177699570739</v>
+        <v>0.3005342429323514</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>89016</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71085</v>
+        <v>71820</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>109436</v>
+        <v>107013</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09827803333059629</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07848115755515642</v>
+        <v>0.07929347304694505</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1208234676493908</v>
+        <v>0.1181486514687014</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>124</v>
@@ -2874,19 +2874,19 @@
         <v>134346</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>113398</v>
+        <v>113936</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>156435</v>
+        <v>157003</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1339280303131085</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.113045600519408</v>
+        <v>0.1135814164659135</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1559489313013022</v>
+        <v>0.1565145521474156</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>210</v>
@@ -2895,19 +2895,19 @@
         <v>223361</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>196756</v>
+        <v>198332</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>251893</v>
+        <v>254425</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1170122312243154</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1030747115322893</v>
+        <v>0.1038999175199627</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1319592645719881</v>
+        <v>0.1332853669062377</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>602500</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>576806</v>
+        <v>576079</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>629673</v>
+        <v>625573</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7341996620358602</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.702889281466985</v>
+        <v>0.7020028902815842</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7673115623196197</v>
+        <v>0.7623160949387611</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>539</v>
@@ -3020,19 +3020,19 @@
         <v>566750</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>541069</v>
+        <v>542673</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>589145</v>
+        <v>591349</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7389304305478804</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7054470571090165</v>
+        <v>0.7075382716374281</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7681284568354299</v>
+        <v>0.7710028602623746</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1120</v>
@@ -3041,19 +3041,19 @@
         <v>1169250</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1131154</v>
+        <v>1127233</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1205408</v>
+        <v>1202046</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7364851347019848</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7124897917876396</v>
+        <v>0.7100199935503175</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7592606653631423</v>
+        <v>0.7571425398470614</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>159347</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>134964</v>
+        <v>139221</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>182349</v>
+        <v>182380</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1941788373469852</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1644652051566688</v>
+        <v>0.1696528625084109</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2222081913949557</v>
+        <v>0.2222463744500917</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>133</v>
@@ -3091,19 +3091,19 @@
         <v>142772</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>122246</v>
+        <v>122079</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>167780</v>
+        <v>164838</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1861460837118279</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1593849725384875</v>
+        <v>0.1591668170895835</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2187522340119153</v>
+        <v>0.214916368738448</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>281</v>
@@ -3112,19 +3112,19 @@
         <v>302119</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>269349</v>
+        <v>272325</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>334098</v>
+        <v>339113</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1902981488668327</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.169657113815123</v>
+        <v>0.171531532178802</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2104413258165834</v>
+        <v>0.2135999865071805</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>58774</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>44840</v>
+        <v>44451</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>74655</v>
+        <v>74253</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07162150061715458</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05464152785822588</v>
+        <v>0.05416759086462803</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09097412252031324</v>
+        <v>0.09048351894128215</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -3162,19 +3162,19 @@
         <v>57465</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43152</v>
+        <v>42722</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73693</v>
+        <v>75066</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07492348574029173</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05626175920164206</v>
+        <v>0.05570104685762819</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09608175382552586</v>
+        <v>0.0978719050943349</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>107</v>
@@ -3183,19 +3183,19 @@
         <v>116239</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>94978</v>
+        <v>94995</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>137612</v>
+        <v>137162</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07321671643118252</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05982440811329549</v>
+        <v>0.05983561414845343</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08667888407603064</v>
+        <v>0.08639555143295001</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>356276</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>336815</v>
+        <v>335184</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>376885</v>
+        <v>377082</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7091375647693405</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.67040097018946</v>
+        <v>0.6671542725433098</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7501579229018092</v>
+        <v>0.750549447599873</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>302</v>
@@ -3308,19 +3308,19 @@
         <v>321274</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>300536</v>
+        <v>300228</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>342035</v>
+        <v>344301</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6629820729164052</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6201871415585645</v>
+        <v>0.6195503281770133</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7058225835613183</v>
+        <v>0.710499474044947</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>632</v>
@@ -3329,19 +3329,19 @@
         <v>677551</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>645506</v>
+        <v>648357</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>706252</v>
+        <v>707203</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6864764317236225</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6540089278063811</v>
+        <v>0.6568982590472185</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7155552150304588</v>
+        <v>0.7165192666337505</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>85064</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>68555</v>
+        <v>70398</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>102193</v>
+        <v>102951</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1693127308001145</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.136453365728361</v>
+        <v>0.140121945440429</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2034057723922671</v>
+        <v>0.2049157230256236</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>84</v>
@@ -3379,19 +3379,19 @@
         <v>92065</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75651</v>
+        <v>74340</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>111382</v>
+        <v>110995</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1899860813928628</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1561134552351283</v>
+        <v>0.153407828060043</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2298482736537792</v>
+        <v>0.2290500403338365</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>165</v>
@@ -3400,19 +3400,19 @@
         <v>177129</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>153097</v>
+        <v>151815</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>201823</v>
+        <v>201538</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1794628024270351</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1551136665532413</v>
+        <v>0.1538149355065887</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2044818239802007</v>
+        <v>0.2041929038113455</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>61068</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45808</v>
+        <v>47738</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>76292</v>
+        <v>78346</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.121549704430545</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09117594660731936</v>
+        <v>0.09501756715187934</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1518521086741138</v>
+        <v>0.1559402710742863</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>64</v>
@@ -3450,19 +3450,19 @@
         <v>71250</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>56079</v>
+        <v>54386</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>87804</v>
+        <v>89949</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.147031845690732</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1157244974305397</v>
+        <v>0.1122312589868425</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1811917573813727</v>
+        <v>0.1856195079475292</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>120</v>
@@ -3471,19 +3471,19 @@
         <v>132318</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>113177</v>
+        <v>109379</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>160808</v>
+        <v>154327</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1340607658493424</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1146681000364789</v>
+        <v>0.1108195567392041</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1629263248106837</v>
+        <v>0.1563596361022264</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>2186936</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2129391</v>
+        <v>2133365</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2241483</v>
+        <v>2240453</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6524981998957036</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6353289406516073</v>
+        <v>0.6365145889568974</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6687727152957066</v>
+        <v>0.6684653467386981</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2168</v>
@@ -3596,19 +3596,19 @@
         <v>2292556</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2236606</v>
+        <v>2237150</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2348393</v>
+        <v>2349069</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6534297546016149</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6374828165900577</v>
+        <v>0.6376377572887542</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6693445664710338</v>
+        <v>0.6695374564755093</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4259</v>
@@ -3617,19 +3617,19 @@
         <v>4479492</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4397030</v>
+        <v>4394981</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4562936</v>
+        <v>4561263</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6529746274554991</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6409541274788029</v>
+        <v>0.6406554140961263</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6651381884667955</v>
+        <v>0.6648943064732016</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>830410</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>779646</v>
+        <v>781934</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>884611</v>
+        <v>880478</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2477626203154678</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2326165005976006</v>
+        <v>0.2332991710753966</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2639342356433999</v>
+        <v>0.262701042693093</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>760</v>
@@ -3667,19 +3667,19 @@
         <v>804461</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>754243</v>
+        <v>756145</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>855270</v>
+        <v>856611</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2292893059686109</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2149761279581009</v>
+        <v>0.2155183832746503</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2437711238093362</v>
+        <v>0.244153313289154</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1542</v>
@@ -3688,19 +3688,19 @@
         <v>1634871</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1564478</v>
+        <v>1555945</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1711005</v>
+        <v>1705600</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2383147628576515</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2280535857195304</v>
+        <v>0.2268098311829873</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2494128190576337</v>
+        <v>0.2486249094897123</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>334289</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>301863</v>
+        <v>301182</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>372147</v>
+        <v>373502</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09973917978882857</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09006422906651616</v>
+        <v>0.08986106072842304</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1110345151570247</v>
+        <v>0.1114388465617867</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>377</v>
@@ -3738,19 +3738,19 @@
         <v>411480</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>373195</v>
+        <v>372130</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>454537</v>
+        <v>451395</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1172809394297741</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1063688168628986</v>
+        <v>0.1060653115694564</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1295533041927849</v>
+        <v>0.1286577939128881</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>694</v>
@@ -3759,19 +3759,19 @@
         <v>745769</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>690166</v>
+        <v>689677</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>798137</v>
+        <v>795907</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1087106096868494</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1006054148877623</v>
+        <v>0.1005340623453804</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1163443088257527</v>
+        <v>0.1160192040382835</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>342129</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>316448</v>
+        <v>316951</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>365172</v>
+        <v>363807</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6874833201348575</v>
+        <v>0.6874833201348577</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6358788276145246</v>
+        <v>0.6368901183954634</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7337869450041432</v>
+        <v>0.7310444140965527</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>598</v>
@@ -4124,19 +4124,19 @@
         <v>422816</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>400247</v>
+        <v>399779</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>445162</v>
+        <v>444161</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6794630983127836</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6431948773236659</v>
+        <v>0.6424437986272772</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7153738469834847</v>
+        <v>0.7137647036125625</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>911</v>
@@ -4145,19 +4145,19 @@
         <v>764944</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>729899</v>
+        <v>733890</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>795640</v>
+        <v>795730</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6830269677854339</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6517353292551274</v>
+        <v>0.6552991223382759</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7104359521965801</v>
+        <v>0.7105167892640472</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>97976</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>79733</v>
+        <v>80181</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>122169</v>
+        <v>118956</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1968761804741701</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1602181462378338</v>
+        <v>0.161118357411929</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2454894719401393</v>
+        <v>0.2390336313641595</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>152</v>
@@ -4195,19 +4195,19 @@
         <v>116334</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>99563</v>
+        <v>98782</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>135120</v>
+        <v>135796</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1869482148400398</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1599971757167806</v>
+        <v>0.1587428987375349</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2171370289803634</v>
+        <v>0.2182235084987371</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>240</v>
@@ -4216,19 +4216,19 @@
         <v>214310</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>187025</v>
+        <v>189489</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>243946</v>
+        <v>241209</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1913598102340245</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1669967172348103</v>
+        <v>0.1691967496337649</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2178217684972882</v>
+        <v>0.2153780672758108</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>57549</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>42884</v>
+        <v>43807</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>74217</v>
+        <v>75797</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1156404993909722</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08617169650457354</v>
+        <v>0.08802799433656899</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1491345415278766</v>
+        <v>0.1523077624756029</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>109</v>
@@ -4266,19 +4266,19 @@
         <v>83129</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68731</v>
+        <v>69116</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>99314</v>
+        <v>102802</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1335886868471765</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1104507419492408</v>
+        <v>0.1110692216115665</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1595976510817997</v>
+        <v>0.1652028208199888</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>162</v>
@@ -4287,19 +4287,19 @@
         <v>140678</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>118811</v>
+        <v>120445</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>165994</v>
+        <v>164366</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1256132219805416</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1060877449919606</v>
+        <v>0.1075462981238709</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1482178143315322</v>
+        <v>0.1467644398401052</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>739337</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>707709</v>
+        <v>714062</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>765434</v>
+        <v>771856</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7700323055918649</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7370917757502853</v>
+        <v>0.7437087542892542</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7972128603339411</v>
+        <v>0.8039021966897676</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1226</v>
@@ -4412,19 +4412,19 @@
         <v>834658</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>808194</v>
+        <v>809127</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>862015</v>
+        <v>861224</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7480024481614588</v>
+        <v>0.7480024481614587</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.724286559425819</v>
+        <v>0.725122425525119</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7725192710578328</v>
+        <v>0.7718106520371144</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1927</v>
@@ -4433,19 +4433,19 @@
         <v>1573994</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1536113</v>
+        <v>1533334</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1613084</v>
+        <v>1611258</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7581911846142084</v>
+        <v>0.7581911846142081</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7399438152502329</v>
+        <v>0.7386051685420556</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7770206992883465</v>
+        <v>0.7761410487271722</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>160573</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>136576</v>
+        <v>133720</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>188411</v>
+        <v>186035</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1672393897755983</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1422465721350374</v>
+        <v>0.1392714176809967</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.196232945964226</v>
+        <v>0.1937585940750939</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>252</v>
@@ -4483,19 +4483,19 @@
         <v>188397</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>166861</v>
+        <v>164154</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>211352</v>
+        <v>212155</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1688376978353893</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1495371041239362</v>
+        <v>0.1471113215171562</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1894090057780505</v>
+        <v>0.1901287401133452</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>402</v>
@@ -4504,19 +4504,19 @@
         <v>348970</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>316263</v>
+        <v>316422</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>382502</v>
+        <v>383371</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1680984856256435</v>
+        <v>0.1680984856256434</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.152343414847798</v>
+        <v>0.1524200140784546</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1842508959300598</v>
+        <v>0.1846694159920429</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>60228</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45282</v>
+        <v>45225</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79533</v>
+        <v>77441</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06272830463253695</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04716244890010764</v>
+        <v>0.04710264435914774</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08283521245307143</v>
+        <v>0.08065625175657398</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>129</v>
@@ -4554,19 +4554,19 @@
         <v>92794</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>76959</v>
+        <v>78145</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>110997</v>
+        <v>111846</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08315985400315191</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06896870321268517</v>
+        <v>0.07003191034692058</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09947307304021222</v>
+        <v>0.1002339691784382</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>188</v>
@@ -4575,19 +4575,19 @@
         <v>153022</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>129841</v>
+        <v>131056</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>179130</v>
+        <v>175913</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07371032976014823</v>
+        <v>0.07371032976014821</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06254403977123094</v>
+        <v>0.06312939556765891</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08628648615214454</v>
+        <v>0.08473708582303519</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>808575</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>778525</v>
+        <v>778216</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>835972</v>
+        <v>836956</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7726620114233994</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7439474765413571</v>
+        <v>0.7436518739002193</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7988421787837011</v>
+        <v>0.7997828804523166</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1168</v>
@@ -4700,19 +4700,19 @@
         <v>798943</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>773882</v>
+        <v>772260</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>822553</v>
+        <v>823751</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7626104870082377</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7386897340787769</v>
+        <v>0.7371414861949613</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7851466133921776</v>
+        <v>0.7862906334310124</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1955</v>
@@ -4721,19 +4721,19 @@
         <v>1607517</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1571909</v>
+        <v>1572170</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1644370</v>
+        <v>1647577</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7676334596294001</v>
+        <v>0.7676334596294002</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7506294046037415</v>
+        <v>0.7507541298356274</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7852318114607406</v>
+        <v>0.7867628222919248</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>146342</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>124462</v>
+        <v>124592</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>169247</v>
+        <v>171885</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1398422447104372</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1189342208850893</v>
+        <v>0.1190586441824065</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1617302230342844</v>
+        <v>0.1642503381089543</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>213</v>
@@ -4771,19 +4771,19 @@
         <v>152700</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>133059</v>
+        <v>133459</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>174438</v>
+        <v>173774</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.145755476717581</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1270078615796669</v>
+        <v>0.1273900402880137</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.166505784620687</v>
+        <v>0.1658717236293688</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>369</v>
@@ -4792,19 +4792,19 @@
         <v>299042</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>268132</v>
+        <v>270700</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>330590</v>
+        <v>335436</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1428005018055504</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1280404413032042</v>
+        <v>0.1292665241853404</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1578656769744627</v>
+        <v>0.1601800364993327</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>91562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>73258</v>
+        <v>73213</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>114691</v>
+        <v>115218</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08749574386616353</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07000448916832627</v>
+        <v>0.06996125113442313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1095970081396837</v>
+        <v>0.1101007450194171</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>135</v>
@@ -4842,19 +4842,19 @@
         <v>96000</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>80112</v>
+        <v>80941</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>113650</v>
+        <v>114819</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.0916340362741814</v>
+        <v>0.09163403627418142</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07646934463488944</v>
+        <v>0.07726044576742272</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1084814265595733</v>
+        <v>0.1095977278148604</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>221</v>
@@ -4863,19 +4863,19 @@
         <v>187562</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>162658</v>
+        <v>162162</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>213998</v>
+        <v>215574</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.08956603856504941</v>
+        <v>0.0895660385650494</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07767384122843864</v>
+        <v>0.07743664720889326</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1021897000112442</v>
+        <v>0.1029423031507386</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>659790</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>625143</v>
+        <v>625873</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>688804</v>
+        <v>693050</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6764463172139767</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.640925528939823</v>
+        <v>0.6416731547306941</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7061932171292179</v>
+        <v>0.7105460494589353</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>944</v>
@@ -4988,19 +4988,19 @@
         <v>636430</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>611955</v>
+        <v>612936</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>659935</v>
+        <v>662297</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7014876125102382</v>
+        <v>0.7014876125102384</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6745109982736521</v>
+        <v>0.6755916104431143</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7273948213877789</v>
+        <v>0.7299980972083526</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1577</v>
@@ -5009,19 +5009,19 @@
         <v>1296220</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1254251</v>
+        <v>1255750</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1336969</v>
+        <v>1333759</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6885139345981802</v>
+        <v>0.6885139345981801</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6662212113870454</v>
+        <v>0.6670178222014483</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.710158816971164</v>
+        <v>0.7084536635808377</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>201336</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>174698</v>
+        <v>174007</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>231445</v>
+        <v>231539</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2064188352593284</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1791082255570552</v>
+        <v>0.1783998097975307</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2372881648468906</v>
+        <v>0.2373841165941072</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>231</v>
@@ -5059,19 +5059,19 @@
         <v>156997</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>137769</v>
+        <v>135948</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>178804</v>
+        <v>177672</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1730455596369654</v>
+        <v>0.1730455596369655</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1518517650431039</v>
+        <v>0.1498449488246835</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1970817219578008</v>
+        <v>0.1958337060527321</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>429</v>
@@ -5080,19 +5080,19 @@
         <v>358333</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>323604</v>
+        <v>324896</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>394581</v>
+        <v>393473</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1903359642934498</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1718888587689811</v>
+        <v>0.1725752509909131</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2095900342489187</v>
+        <v>0.209001557071587</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>114251</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>95329</v>
+        <v>94798</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>135941</v>
+        <v>134436</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1171348475266947</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09773603295507943</v>
+        <v>0.09719143593804448</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1393725267725321</v>
+        <v>0.13783023507381</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>147</v>
@@ -5130,19 +5130,19 @@
         <v>113831</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>96692</v>
+        <v>96670</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>134917</v>
+        <v>133554</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1254668278527962</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.106576362451161</v>
+        <v>0.1065517845648004</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1487082840289564</v>
+        <v>0.1472063380388445</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>262</v>
@@ -5151,19 +5151,19 @@
         <v>228081</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>201448</v>
+        <v>202509</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>259666</v>
+        <v>258292</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.12115010110837</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1070033315100761</v>
+        <v>0.1075666188515784</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1379270519002281</v>
+        <v>0.1371972610036745</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>2549829</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2489510</v>
+        <v>2497125</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2606645</v>
+        <v>2604385</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7327841420107765</v>
+        <v>0.7327841420107767</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7154493251777024</v>
+        <v>0.7176375488532327</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.749112170295325</v>
+        <v>0.748462762573143</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3936</v>
@@ -5276,19 +5276,19 @@
         <v>2692846</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2642379</v>
+        <v>2641547</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2736654</v>
+        <v>2744377</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7291703315106849</v>
+        <v>0.7291703315106848</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7155049880945764</v>
+        <v>0.7152796392814947</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7410328702764927</v>
+        <v>0.7431240869746945</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6370</v>
@@ -5297,19 +5297,19 @@
         <v>5242675</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5158200</v>
+        <v>5162803</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5318540</v>
+        <v>5314678</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.730923482763101</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7191461103252209</v>
+        <v>0.7197878202725494</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7415004513708862</v>
+        <v>0.7409619217381843</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>606227</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>557540</v>
+        <v>563097</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>657240</v>
+        <v>653043</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1742208509350184</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1602288668376637</v>
+        <v>0.1618260531026409</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1888814085172808</v>
+        <v>0.1876751460597974</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>848</v>
@@ -5347,19 +5347,19 @@
         <v>614428</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>576917</v>
+        <v>574947</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>661069</v>
+        <v>655038</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1663750856786971</v>
+        <v>0.1663750856786972</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1562178510426649</v>
+        <v>0.1556844432901102</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1790046020673326</v>
+        <v>0.1773715036789004</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1440</v>
@@ -5368,19 +5368,19 @@
         <v>1220655</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1156268</v>
+        <v>1156212</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1288446</v>
+        <v>1291123</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1701812656609995</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1612045526196355</v>
+        <v>0.1611967898385386</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1796326291895163</v>
+        <v>0.1800059053428996</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>323590</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>285908</v>
+        <v>292813</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>361304</v>
+        <v>367968</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09299500705420501</v>
+        <v>0.09299500705420502</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0821659194436398</v>
+        <v>0.08415015622486295</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1038335973761183</v>
+        <v>0.1057486254247223</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>520</v>
@@ -5418,19 +5418,19 @@
         <v>385754</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>354453</v>
+        <v>353414</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>421858</v>
+        <v>421299</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1044545828106181</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09597903389743739</v>
+        <v>0.09569757229945919</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1142309461991739</v>
+        <v>0.1140795166571686</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>833</v>
@@ -5439,19 +5439,19 @@
         <v>709343</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>662827</v>
+        <v>662535</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>765750</v>
+        <v>763845</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09889525157589941</v>
+        <v>0.09889525157589943</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09241005540985929</v>
+        <v>0.09236933270344184</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1067592960336289</v>
+        <v>0.1064938222394038</v>
       </c>
     </row>
     <row r="23">
